--- a/sorting wykresy.xlsx
+++ b/sorting wykresy.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz4" sheetId="4" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId3"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="17">
   <si>
     <t>NAZWA ALGORYTMU</t>
   </si>
@@ -56,15 +57,48 @@
   <si>
     <t>LICZBA ELEMENTÓW W TABLICY DANYCH</t>
   </si>
+  <si>
+    <t>Ilość elementów w tablicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Rodzje algorytmów</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tabela 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Czas wykonywania sortowania danych (podany w sekundach) przez cztery rodzaje algorytmów w zależności od liczby elementów w tablicy danych w czterech kategoriach rozłożenia danych wejściowych.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +110,21 @@
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +161,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -216,11 +281,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +541,244 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,8 +996,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0821424178246943E-2"/>
-          <c:y val="0.22737813272746069"/>
+          <c:x val="9.0821424178247026E-2"/>
+          <c:y val="0.22737813272746077"/>
           <c:w val="0.79776476275933228"/>
           <c:h val="0.66356745305734877"/>
         </c:manualLayout>
@@ -1584,11 +2097,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120375552"/>
-        <c:axId val="120267136"/>
+        <c:axId val="118280576"/>
+        <c:axId val="118282880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120375552"/>
+        <c:axId val="118280576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,8 +2131,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41983097216275733"/>
-              <c:y val="0.95787604666289883"/>
+              <c:x val="0.41983097216275755"/>
+              <c:y val="0.95787604666289905"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1638,14 +2151,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120267136"/>
+        <c:crossAx val="118282880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120267136"/>
+        <c:axId val="118282880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,8 +2184,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.0550985360011376E-3"/>
-              <c:y val="0.39368721598826423"/>
+              <c:x val="6.0550985360011394E-3"/>
+              <c:y val="0.39368721598826451"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1691,7 +2204,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120375552"/>
+        <c:crossAx val="118280576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,7 +2217,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1745,16 +2258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>118781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>120574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1763,8 +2276,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13468350" y="2038350"/>
-          <a:ext cx="19051" cy="4686300"/>
+          <a:off x="14015757" y="2046193"/>
+          <a:ext cx="19051" cy="4663440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1789,16 +2302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>128307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>130100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1807,8 +2320,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15563850" y="2047875"/>
-          <a:ext cx="0" cy="4667250"/>
+          <a:off x="16479931" y="2055719"/>
+          <a:ext cx="0" cy="4663440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1834,15 +2347,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>128307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>130100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1851,8 +2364,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17649825" y="2038350"/>
-          <a:ext cx="1" cy="4676775"/>
+          <a:off x="18956991" y="2055719"/>
+          <a:ext cx="1" cy="4663440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2413,10 +2926,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2426,9 +2953,16 @@
     <col min="3" max="3" width="36.875" customWidth="1"/>
     <col min="4" max="4" width="29.125" customWidth="1"/>
     <col min="5" max="5" width="34.875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="10.125" customWidth="1"/>
+    <col min="25" max="40" width="10.125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="62.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:40" ht="62.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -2445,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1">
+    <row r="2" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2461,8 +2995,35 @@
       <c r="E2" s="10">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="X2" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" thickBot="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2478,8 +3039,25 @@
       <c r="E3" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
+    </row>
+    <row r="4" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2495,8 +3073,57 @@
       <c r="E4" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="X4" s="58"/>
+      <c r="Y4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15" thickTop="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2512,8 +3139,59 @@
       <c r="E5" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="X5" s="19">
+        <v>1500</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="AB5" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="AD5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="AF5" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="AG5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI5" s="36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AJ5" s="36">
+        <v>2E-3</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="AL5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2529,8 +3207,59 @@
       <c r="E6" s="4">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="X6" s="20">
+        <v>3000</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AF6" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="36">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AI6" s="36">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AJ6" s="36">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AK6" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="AL6" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AM6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2546,8 +3275,59 @@
       <c r="E7" s="4">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="X7" s="20">
+        <v>7500</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AD7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="23">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AF7" s="23">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AG7" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="AH7" s="36">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AI7" s="36">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AJ7" s="36">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AK7" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="AL7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="AN7" s="37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2563,8 +3343,59 @@
       <c r="E8" s="4">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="X8" s="20">
+        <v>9000</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AC8" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="AD8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="23">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AF8" s="23">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AG8" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="AH8" s="36">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AI8" s="36">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AJ8" s="36">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AK8" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AL8" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AM8" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AN8" s="37">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2580,8 +3411,59 @@
       <c r="E9" s="4">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="X9" s="20">
+        <v>15000</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>0.215</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>0.222</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AC9" s="23">
+        <v>0.108</v>
+      </c>
+      <c r="AD9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="23">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="AG9" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="AH9" s="36">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AI9" s="36">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AJ9" s="36">
+        <v>0.24</v>
+      </c>
+      <c r="AK9" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL9" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AM9" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AN9" s="37">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2597,8 +3479,59 @@
       <c r="E10" s="4">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="X10" s="20">
+        <v>15001</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AB10" s="22">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AC10" s="23">
+        <v>0.105</v>
+      </c>
+      <c r="AD10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="23">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AF10" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="AG10" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="AH10" s="36">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AI10" s="36">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AJ10" s="36">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AK10" s="37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AL10" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AM10" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AN10" s="37">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2614,8 +3547,59 @@
       <c r="E11" s="4">
         <v>0.84299999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="X11" s="20">
+        <v>15005</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AC11" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="AG11" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="AH11" s="36">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AI11" s="36">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AJ11" s="36">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AK11" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AL11" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AM11" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AN11" s="37">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2631,8 +3615,59 @@
       <c r="E12" s="4">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="X12" s="20">
+        <v>17501</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AC12" s="23">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AD12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="23">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AF12" s="23">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AG12" s="36">
+        <v>1E-3</v>
+      </c>
+      <c r="AH12" s="36">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AI12" s="36">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AJ12" s="36">
+        <v>0.318</v>
+      </c>
+      <c r="AK12" s="37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AL12" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AM12" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AN12" s="37">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2648,8 +3683,59 @@
       <c r="E13" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="X13" s="20">
+        <v>19281</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AC13" s="23">
+        <v>0.186</v>
+      </c>
+      <c r="AD13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="AF13" s="23">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AG13" s="36">
+        <v>2E-3</v>
+      </c>
+      <c r="AH13" s="36">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AI13" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ13" s="36">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AK13" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL13" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AM13" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="AN13" s="37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -2665,8 +3751,59 @@
       <c r="E14" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="X14" s="20">
+        <v>30000</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="Z14" s="22">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AC14" s="23">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AD14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="AF14" s="23">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="AG14" s="36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AH14" s="36">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="AI14" s="36">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="AJ14" s="36">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AK14" s="37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AL14" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AM14" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AN14" s="37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -2683,7 +3820,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:40">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -2972,7 +4109,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:41">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -2989,7 +4126,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:41">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -3006,7 +4143,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:41">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -3023,7 +4160,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:41">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -3040,7 +4177,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:41">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -3057,7 +4194,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:41">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -3074,7 +4211,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:41">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -3091,7 +4228,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:41">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -3108,7 +4245,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:41">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -3125,7 +4262,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:41">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -3142,7 +4279,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:41" ht="15" thickBot="1">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -3159,7 +4296,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:41" ht="14.25" customHeight="1" thickTop="1">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -3175,8 +4312,29 @@
       <c r="E44" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="X44" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y44" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="66"/>
+      <c r="AN44" s="67"/>
+    </row>
+    <row r="45" spans="1:41" ht="15" thickBot="1">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -3192,8 +4350,28 @@
       <c r="E45" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="69"/>
+      <c r="AA45" s="69"/>
+      <c r="AB45" s="69"/>
+      <c r="AC45" s="69"/>
+      <c r="AD45" s="69"/>
+      <c r="AE45" s="69"/>
+      <c r="AF45" s="69"/>
+      <c r="AG45" s="69"/>
+      <c r="AH45" s="69"/>
+      <c r="AI45" s="69"/>
+      <c r="AJ45" s="69"/>
+      <c r="AK45" s="69"/>
+      <c r="AL45" s="69"/>
+      <c r="AM45" s="69"/>
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="106"/>
+    </row>
+    <row r="46" spans="1:41" ht="15" customHeight="1" thickTop="1">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -3206,11 +4384,65 @@
       <c r="D46" s="1">
         <v>15000</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="24">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="59"/>
+      <c r="U46" s="59"/>
+      <c r="V46" s="60"/>
+      <c r="X46" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y46" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="74"/>
+      <c r="AG46" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="74"/>
+      <c r="AK46" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL46" s="73"/>
+      <c r="AM46" s="73"/>
+      <c r="AN46" s="74"/>
+    </row>
+    <row r="47" spans="1:41" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -3223,11 +4455,45 @@
       <c r="D47" s="1">
         <v>15001</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="24">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="64"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="63"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="80"/>
+      <c r="AA47" s="80"/>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="79"/>
+      <c r="AD47" s="80"/>
+      <c r="AE47" s="80"/>
+      <c r="AF47" s="81"/>
+      <c r="AG47" s="79"/>
+      <c r="AH47" s="80"/>
+      <c r="AI47" s="80"/>
+      <c r="AJ47" s="81"/>
+      <c r="AK47" s="79"/>
+      <c r="AL47" s="80"/>
+      <c r="AM47" s="80"/>
+      <c r="AN47" s="81"/>
+    </row>
+    <row r="48" spans="1:41" ht="15.75" thickTop="1" thickBot="1">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -3240,11 +4506,109 @@
       <c r="D48" s="1">
         <v>15005</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="24">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="65"/>
+      <c r="G48" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S48" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC48" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD48" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF48" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG48" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH48" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI48" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ48" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK48" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL48" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM48" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN48" s="89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -3260,8 +4624,110 @@
       <c r="E49" s="2">
         <v>0.14399999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="19">
+        <v>1500</v>
+      </c>
+      <c r="G49" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="H49" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="I49" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="J49" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="K49" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="L49" s="23">
+        <v>0</v>
+      </c>
+      <c r="M49" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="N49" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="O49" s="35">
+        <v>0</v>
+      </c>
+      <c r="P49" s="36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q49" s="36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R49" s="36">
+        <v>2E-3</v>
+      </c>
+      <c r="S49" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="T49" s="37">
+        <v>0</v>
+      </c>
+      <c r="U49" s="37">
+        <v>0</v>
+      </c>
+      <c r="V49" s="37">
+        <v>0</v>
+      </c>
+      <c r="X49" s="91">
+        <v>1500</v>
+      </c>
+      <c r="Y49" s="92">
+        <v>2E-3</v>
+      </c>
+      <c r="Z49" s="93">
+        <v>2E-3</v>
+      </c>
+      <c r="AA49" s="93">
+        <v>2E-3</v>
+      </c>
+      <c r="AB49" s="93">
+        <v>2E-3</v>
+      </c>
+      <c r="AC49" s="94">
+        <v>2E-3</v>
+      </c>
+      <c r="AD49" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="94">
+        <v>2E-3</v>
+      </c>
+      <c r="AF49" s="94">
+        <v>1E-3</v>
+      </c>
+      <c r="AG49" s="95">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="96">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI49" s="96">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AJ49" s="96">
+        <v>2E-3</v>
+      </c>
+      <c r="AK49" s="97">
+        <v>1E-3</v>
+      </c>
+      <c r="AL49" s="97">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="97">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -3277,8 +4743,110 @@
       <c r="E50" s="2">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="20">
+        <v>3000</v>
+      </c>
+      <c r="G50" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H50" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I50" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J50" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K50" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L50" s="23">
+        <v>0</v>
+      </c>
+      <c r="M50" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N50" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O50" s="35">
+        <v>0</v>
+      </c>
+      <c r="P50" s="36">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Q50" s="36">
+        <v>1.4E-2</v>
+      </c>
+      <c r="R50" s="36">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S50" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="T50" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="U50" s="37">
+        <v>0</v>
+      </c>
+      <c r="V50" s="37">
+        <v>0</v>
+      </c>
+      <c r="X50" s="91">
+        <v>3000</v>
+      </c>
+      <c r="Y50" s="98">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z50" s="93">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA50" s="93">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB50" s="93">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC50" s="94">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD50" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="94">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AF50" s="94">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG50" s="95">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="96">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AI50" s="96">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AJ50" s="96">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AK50" s="97">
+        <v>1E-3</v>
+      </c>
+      <c r="AL50" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AM50" s="97">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -3294,8 +4862,110 @@
       <c r="E51" s="2">
         <v>0.42799999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="20">
+        <v>7500</v>
+      </c>
+      <c r="G51" s="22">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H51" s="22">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I51" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J51" s="22">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K51" s="23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L51" s="23">
+        <v>0</v>
+      </c>
+      <c r="M51" s="23">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N51" s="23">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O51" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="P51" s="36">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Q51" s="36">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="R51" s="36">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="S51" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="T51" s="37">
+        <v>0</v>
+      </c>
+      <c r="U51" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="V51" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="X51" s="91">
+        <v>7500</v>
+      </c>
+      <c r="Y51" s="98">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Z51" s="93">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA51" s="93">
+        <v>0.05</v>
+      </c>
+      <c r="AB51" s="93">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AC51" s="94">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AD51" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="94">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AF51" s="94">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AG51" s="95">
+        <v>1E-3</v>
+      </c>
+      <c r="AH51" s="96">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AI51" s="96">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AJ51" s="96">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AK51" s="97">
+        <v>1E-3</v>
+      </c>
+      <c r="AL51" s="97">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="97">
+        <v>1E-3</v>
+      </c>
+      <c r="AN51" s="97">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -3311,8 +4981,110 @@
       <c r="E52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="20">
+        <v>9000</v>
+      </c>
+      <c r="G52" s="22">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H52" s="22">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I52" s="22">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J52" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K52" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="L52" s="23">
+        <v>0</v>
+      </c>
+      <c r="M52" s="23">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N52" s="23">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O52" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="P52" s="36">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q52" s="36">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="R52" s="36">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="S52" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="T52" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="U52" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="V52" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="X52" s="99">
+        <v>9000</v>
+      </c>
+      <c r="Y52" s="98">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Z52" s="93">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AA52" s="93">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AB52" s="93">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AC52" s="94">
+        <v>0.04</v>
+      </c>
+      <c r="AD52" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="94">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AF52" s="94">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AG52" s="95">
+        <v>1E-3</v>
+      </c>
+      <c r="AH52" s="96">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AI52" s="96">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AJ52" s="96">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AK52" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AL52" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AM52" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AN52" s="97">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -3328,8 +5100,110 @@
       <c r="E53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="20">
+        <v>15000</v>
+      </c>
+      <c r="G53" s="22">
+        <v>0.215</v>
+      </c>
+      <c r="H53" s="22">
+        <v>0.222</v>
+      </c>
+      <c r="I53" s="22">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J53" s="22">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K53" s="23">
+        <v>0.108</v>
+      </c>
+      <c r="L53" s="23">
+        <v>0</v>
+      </c>
+      <c r="M53" s="23">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="N53" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="O53" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="P53" s="36">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="Q53" s="36">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="R53" s="36">
+        <v>0.24</v>
+      </c>
+      <c r="S53" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T53" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="U53" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="V53" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="X53" s="91">
+        <v>15000</v>
+      </c>
+      <c r="Y53" s="98">
+        <v>0.215</v>
+      </c>
+      <c r="Z53" s="93">
+        <v>0.222</v>
+      </c>
+      <c r="AA53" s="93">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AB53" s="93">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AC53" s="94">
+        <v>0.108</v>
+      </c>
+      <c r="AD53" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="94">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AF53" s="94">
+        <v>0.106</v>
+      </c>
+      <c r="AG53" s="95">
+        <v>1E-3</v>
+      </c>
+      <c r="AH53" s="96">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AI53" s="96">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AJ53" s="96">
+        <v>0.24</v>
+      </c>
+      <c r="AK53" s="97">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL53" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AM53" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AN53" s="97">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -3345,8 +5219,110 @@
       <c r="E54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="20">
+        <v>15001</v>
+      </c>
+      <c r="G54" s="22">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H54" s="22">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I54" s="22">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J54" s="22">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K54" s="23">
+        <v>0.105</v>
+      </c>
+      <c r="L54" s="23">
+        <v>0</v>
+      </c>
+      <c r="M54" s="23">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="N54" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="O54" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="P54" s="36">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="Q54" s="36">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="R54" s="36">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="S54" s="37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T54" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="U54" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="V54" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="X54" s="91">
+        <v>15001</v>
+      </c>
+      <c r="Y54" s="98">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="Z54" s="93">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AA54" s="93">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AB54" s="93">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AC54" s="94">
+        <v>0.105</v>
+      </c>
+      <c r="AD54" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="94">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AF54" s="94">
+        <v>0.106</v>
+      </c>
+      <c r="AG54" s="95">
+        <v>1E-3</v>
+      </c>
+      <c r="AH54" s="96">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AI54" s="96">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AJ54" s="96">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AK54" s="97">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AL54" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AM54" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AN54" s="97">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -3362,8 +5338,110 @@
       <c r="E55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="20">
+        <v>15005</v>
+      </c>
+      <c r="G55" s="22">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H55" s="22">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I55" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J55" s="22">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K55" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="L55" s="23">
+        <v>0</v>
+      </c>
+      <c r="M55" s="23">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="N55" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="O55" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="P55" s="36">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="Q55" s="36">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="R55" s="36">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="S55" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="T55" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="U55" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="V55" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="X55" s="99">
+        <v>15005</v>
+      </c>
+      <c r="Y55" s="98">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Z55" s="93">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AA55" s="93">
+        <v>0.2</v>
+      </c>
+      <c r="AB55" s="93">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AC55" s="94">
+        <v>0.106</v>
+      </c>
+      <c r="AD55" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="94">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AF55" s="94">
+        <v>0.106</v>
+      </c>
+      <c r="AG55" s="95">
+        <v>1E-3</v>
+      </c>
+      <c r="AH55" s="96">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AI55" s="96">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AJ55" s="96">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AK55" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AL55" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AM55" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AN55" s="97">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -3379,8 +5457,110 @@
       <c r="E56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="20">
+        <v>17501</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H56" s="22">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="I56" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="J56" s="22">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="K56" s="23">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L56" s="23">
+        <v>0</v>
+      </c>
+      <c r="M56" s="23">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="N56" s="23">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="O56" s="36">
+        <v>1E-3</v>
+      </c>
+      <c r="P56" s="36">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="Q56" s="36">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="R56" s="36">
+        <v>0.318</v>
+      </c>
+      <c r="S56" s="37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T56" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="U56" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="V56" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="X56" s="100">
+        <v>17501</v>
+      </c>
+      <c r="Y56" s="98">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Z56" s="93">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AA56" s="93">
+        <v>0.27</v>
+      </c>
+      <c r="AB56" s="93">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AC56" s="94">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AD56" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="94">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AF56" s="94">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AG56" s="96">
+        <v>1E-3</v>
+      </c>
+      <c r="AH56" s="96">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AI56" s="96">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AJ56" s="96">
+        <v>0.318</v>
+      </c>
+      <c r="AK56" s="97">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AL56" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AM56" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AN56" s="97">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -3396,8 +5576,110 @@
       <c r="E57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="20">
+        <v>19281</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H57" s="22">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I57" s="22">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="J57" s="22">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="K57" s="23">
+        <v>0.186</v>
+      </c>
+      <c r="L57" s="23">
+        <v>0</v>
+      </c>
+      <c r="M57" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="N57" s="23">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="O57" s="36">
+        <v>2E-3</v>
+      </c>
+      <c r="P57" s="36">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="Q57" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R57" s="36">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S57" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T57" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="U57" s="37">
+        <v>2E-3</v>
+      </c>
+      <c r="V57" s="37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X57" s="91">
+        <v>19281</v>
+      </c>
+      <c r="Y57" s="98">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="Z57" s="93">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AA57" s="93">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AB57" s="93">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AC57" s="94">
+        <v>0.186</v>
+      </c>
+      <c r="AD57" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="94">
+        <v>0.35</v>
+      </c>
+      <c r="AF57" s="94">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AG57" s="96">
+        <v>2E-3</v>
+      </c>
+      <c r="AH57" s="96">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AI57" s="96">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ57" s="96">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AK57" s="97">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL57" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AM57" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="AN57" s="97">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" ht="15.75" thickTop="1" thickBot="1">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -3413,8 +5695,110 @@
       <c r="E58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="20">
+        <v>30000</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H58" s="22">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="I58" s="22">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="J58" s="22">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K58" s="23">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="L58" s="23">
+        <v>0</v>
+      </c>
+      <c r="M58" s="23">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="N58" s="23">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O58" s="36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P58" s="36">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="Q58" s="36">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="R58" s="36">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S58" s="37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T58" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U58" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="V58" s="37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X58" s="101">
+        <v>30000</v>
+      </c>
+      <c r="Y58" s="111">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="Z58" s="93">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AA58" s="93">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="AB58" s="93">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AC58" s="94">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AD58" s="94">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="94">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="AF58" s="94">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="AG58" s="96">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AH58" s="96">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="AI58" s="96">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="AJ58" s="96">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AK58" s="108">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AL58" s="108">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AM58" s="108">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AN58" s="108">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" ht="15" thickTop="1">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -3427,11 +5811,29 @@
       <c r="D59" s="1">
         <v>17501</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="26"/>
+      <c r="X59" s="109"/>
+      <c r="Y59" s="110"/>
+      <c r="Z59" s="110"/>
+      <c r="AA59" s="110"/>
+      <c r="AB59" s="110"/>
+      <c r="AC59" s="110"/>
+      <c r="AD59" s="110"/>
+      <c r="AE59" s="110"/>
+      <c r="AF59" s="110"/>
+      <c r="AG59" s="110"/>
+      <c r="AH59" s="110"/>
+      <c r="AI59" s="110"/>
+      <c r="AJ59" s="110"/>
+      <c r="AK59" s="102"/>
+      <c r="AL59" s="102"/>
+      <c r="AM59" s="102"/>
+      <c r="AN59" s="102"/>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -3444,11 +5846,31 @@
       <c r="D60" s="1">
         <v>19281</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="26"/>
+      <c r="X60" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y60" s="104"/>
+      <c r="Z60" s="104"/>
+      <c r="AA60" s="104"/>
+      <c r="AB60" s="104"/>
+      <c r="AC60" s="104"/>
+      <c r="AD60" s="104"/>
+      <c r="AE60" s="104"/>
+      <c r="AF60" s="104"/>
+      <c r="AG60" s="104"/>
+      <c r="AH60" s="104"/>
+      <c r="AI60" s="104"/>
+      <c r="AJ60" s="104"/>
+      <c r="AK60" s="104"/>
+      <c r="AL60" s="104"/>
+      <c r="AM60" s="104"/>
+      <c r="AN60" s="104"/>
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -3461,11 +5883,29 @@
       <c r="D61" s="1">
         <v>30000</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="26"/>
+      <c r="X61" s="104"/>
+      <c r="Y61" s="104"/>
+      <c r="Z61" s="104"/>
+      <c r="AA61" s="104"/>
+      <c r="AB61" s="104"/>
+      <c r="AC61" s="104"/>
+      <c r="AD61" s="104"/>
+      <c r="AE61" s="104"/>
+      <c r="AF61" s="104"/>
+      <c r="AG61" s="104"/>
+      <c r="AH61" s="104"/>
+      <c r="AI61" s="104"/>
+      <c r="AJ61" s="104"/>
+      <c r="AK61" s="104"/>
+      <c r="AL61" s="104"/>
+      <c r="AM61" s="104"/>
+      <c r="AN61" s="104"/>
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -3478,11 +5918,12 @@
       <c r="D62" s="1">
         <v>1500</v>
       </c>
-      <c r="E62" s="2">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -3495,11 +5936,12 @@
       <c r="D63" s="1">
         <v>3000</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="24">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:40">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -3512,11 +5954,12 @@
       <c r="D64" s="1">
         <v>7500</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="24">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -3529,11 +5972,12 @@
       <c r="D65" s="1">
         <v>9000</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="24">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -3546,11 +5990,12 @@
       <c r="D66" s="1">
         <v>15000</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="24">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -3563,11 +6008,12 @@
       <c r="D67" s="1">
         <v>15001</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="24">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -3580,11 +6026,12 @@
       <c r="D68" s="1">
         <v>15005</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="24">
         <v>0.21299999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -3597,11 +6044,12 @@
       <c r="D69" s="1">
         <v>17501</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="24">
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -3614,11 +6062,12 @@
       <c r="D70" s="1">
         <v>19281</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="24">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -3631,11 +6080,12 @@
       <c r="D71" s="1">
         <v>30000</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="24">
         <v>0.84699999999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -3648,11 +6098,12 @@
       <c r="D72" s="1">
         <v>1500</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="24">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -3665,11 +6116,12 @@
       <c r="D73" s="1">
         <v>3000</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -3682,11 +6134,12 @@
       <c r="D74" s="1">
         <v>7500</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="24">
         <v>2.7E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -3699,11 +6152,12 @@
       <c r="D75" s="1">
         <v>9000</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="24">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -3716,11 +6170,12 @@
       <c r="D76" s="1">
         <v>15000</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="24">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -3733,11 +6188,12 @@
       <c r="D77" s="1">
         <v>15001</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="24">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -3750,11 +6206,12 @@
       <c r="D78" s="1">
         <v>15005</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="24">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -3767,11 +6224,12 @@
       <c r="D79" s="1">
         <v>17501</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="24">
         <v>0.14599999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -3784,11 +6242,12 @@
       <c r="D80" s="1">
         <v>19281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="24">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -3801,11 +6260,12 @@
       <c r="D81" s="1">
         <v>30000</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="24">
         <v>0.42299999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -3818,11 +6278,12 @@
       <c r="D82" s="5">
         <v>1500</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -3835,11 +6296,12 @@
       <c r="D83" s="5">
         <v>3000</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="26"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -3852,11 +6314,12 @@
       <c r="D84" s="5">
         <v>7500</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="25">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -3869,11 +6332,12 @@
       <c r="D85" s="5">
         <v>9000</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="25">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -3886,11 +6350,12 @@
       <c r="D86" s="5">
         <v>15000</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="25">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="26"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -3903,11 +6368,12 @@
       <c r="D87" s="5">
         <v>15001</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="25">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="26"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -3920,11 +6386,12 @@
       <c r="D88" s="5">
         <v>15005</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="25">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="26"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -3941,7 +6408,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -3958,7 +6425,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -3975,7 +6442,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -3992,7 +6459,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -4009,7 +6476,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="12">
         <v>93</v>
       </c>
@@ -4026,7 +6493,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -4043,7 +6510,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -5166,24 +7633,32 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="X60:AN61"/>
+    <mergeCell ref="Y44:AN45"/>
+    <mergeCell ref="G46:J47"/>
+    <mergeCell ref="K46:N47"/>
+    <mergeCell ref="O46:R47"/>
+    <mergeCell ref="S46:V47"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X46:X48"/>
+    <mergeCell ref="Y46:AB47"/>
+    <mergeCell ref="AC46:AF47"/>
+    <mergeCell ref="AG46:AJ47"/>
+    <mergeCell ref="AK59:AN59"/>
+    <mergeCell ref="Y2:AB3"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="AG2:AJ3"/>
+    <mergeCell ref="AK2:AN3"/>
+    <mergeCell ref="AK46:AN47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5197,4 +7672,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>